--- a/notebooks/results/PLSDA_MTBLS90.xlsx
+++ b/notebooks/results/PLSDA_MTBLS90.xlsx
@@ -421,19 +421,19 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-0.005582122347977496</v>
+        <v>-0.005582122347977507</v>
       </c>
       <c r="F2" t="n">
-        <v>1.217434790320846</v>
+        <v>1.16456650736976</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[-0.01338144  0.00241532 -0.00468246]</t>
+          <t>[-0.01298691  0.00332539 -0.00517695]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[0.93759124 1.60554613 1.26465959]</t>
+          <t>[0.89088915 1.44634353 1.18087341]</t>
         </is>
       </c>
     </row>
@@ -455,19 +455,19 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-0.03467245829498977</v>
+        <v>-0.03467245829498979</v>
       </c>
       <c r="F3" t="n">
-        <v>2.793735429361665</v>
+        <v>2.278550738675198</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[-0.04232233 -0.02806551 -0.03372569]</t>
+          <t>[-0.04322879 -0.02397523 -0.0341052 ]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[2.47598348 3.28728695 2.89864416]</t>
+          <t>[2.00968222 2.70147874 2.35838439]</t>
         </is>
       </c>
     </row>
@@ -492,16 +492,16 @@
         <v>0.004593355606885671</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4053972397668671</v>
+        <v>0.4469968921068285</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[-0.004288    0.01566806  0.00485197]</t>
+          <t>[-0.00440085  0.01251475  0.0038628 ]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[0.19773071 0.8387348  0.36813184]</t>
+          <t>[0.18964503 0.71888359 0.38617904]</t>
         </is>
       </c>
     </row>
@@ -523,19 +523,19 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.02049783222639446</v>
+        <v>-0.02049783222639447</v>
       </c>
       <c r="F5" t="n">
-        <v>1.778406797131389</v>
+        <v>1.464608761914111</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[-0.02988407 -0.01113334 -0.02010767]</t>
+          <t>[-0.02835105 -0.01147013 -0.02038208]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[1.37019826 2.46926211 1.88623163]</t>
+          <t>[1.12689463 1.72284932 1.51909472]</t>
         </is>
       </c>
     </row>
@@ -557,19 +557,19 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.004163762814267142</v>
+        <v>0.004163762814267146</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2857297649588747</v>
+        <v>0.2831738943646269</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[-0.00421086  0.0158111   0.00507322]</t>
+          <t>[-0.00600251  0.01333092  0.00381013]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>[0.08639873 0.67114885 0.2250228 ]</t>
+          <t>[0.05547755 0.60790026 0.22486332]</t>
         </is>
       </c>
     </row>
@@ -591,19 +591,19 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-0.01530411543136088</v>
+        <v>-0.01530411543136087</v>
       </c>
       <c r="F7" t="n">
-        <v>1.620900563130673</v>
+        <v>1.387082264125746</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[-0.02346919 -0.00350173 -0.01448434]</t>
+          <t>[-0.02325578 -0.00782687 -0.01546435]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[1.22989231 2.07714354 1.69665067]</t>
+          <t>[1.11600448 1.73390213 1.40656682]</t>
         </is>
       </c>
     </row>
@@ -625,19 +625,19 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-0.02426042860970837</v>
+        <v>-0.02426042860970835</v>
       </c>
       <c r="F8" t="n">
-        <v>2.113106904497678</v>
+        <v>1.750087194051987</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[-0.03416858 -0.01657179 -0.02554244]</t>
+          <t>[-0.03465735 -0.01810391 -0.02571141]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[1.71429298 2.62367441 2.20251182]</t>
+          <t>[1.50902359 2.09212702 1.82439007]</t>
         </is>
       </c>
     </row>
@@ -659,19 +659,19 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-0.007263451314746923</v>
+        <v>-0.007263451314746922</v>
       </c>
       <c r="F9" t="n">
-        <v>0.475452846434198</v>
+        <v>0.4307703927684015</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[-0.01673764  0.00187232 -0.00774078]</t>
+          <t>[-0.01777577  0.0068925  -0.00708807]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[0.09865589 1.05444814 0.4819366 ]</t>
+          <t>[0.05256269 0.94255393 0.41974819]</t>
         </is>
       </c>
     </row>
@@ -693,19 +693,19 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-0.0004021470714031345</v>
+        <v>-0.0004021470714031358</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4585128055494934</v>
+        <v>0.4731644754166305</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[-0.01165885  0.00959002 -0.00048182]</t>
+          <t>[-0.010014    0.00862929 -0.00052097]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[0.21469543 0.64863619 0.39823478]</t>
+          <t>[0.18148491 0.64556308 0.35590173]</t>
         </is>
       </c>
     </row>
@@ -727,19 +727,19 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.04173142117837418</v>
+        <v>0.04173142117837417</v>
       </c>
       <c r="F11" t="n">
-        <v>3.054418490463628</v>
+        <v>2.473444836168001</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[0.03447704 0.05318711 0.0424691 ]</t>
+          <t>[0.03534275 0.05333662 0.04243111]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[2.65290911 3.61953885 3.16563802]</t>
+          <t>[2.30684934 2.81041807 2.68744125]</t>
         </is>
       </c>
     </row>
@@ -764,16 +764,16 @@
         <v>-0.02031508173287528</v>
       </c>
       <c r="F12" t="n">
-        <v>1.919553449681061</v>
+        <v>1.60304871782494</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[-0.0289424  -0.01311664 -0.02032307]</t>
+          <t>[-0.02755061 -0.01195996 -0.01896864]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[1.58711954 2.5134207  2.01530928]</t>
+          <t>[1.29146152 2.11223732 1.65284252]</t>
         </is>
       </c>
     </row>
@@ -795,19 +795,19 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.0003667983315402386</v>
+        <v>0.0003667983315402415</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5572129258122978</v>
+        <v>0.5863537547638189</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[-0.00677764  0.00796016  0.0010546 ]</t>
+          <t>[-0.00898871  0.01054298  0.0005126 ]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[0.27710687 0.81084295 0.54217997]</t>
+          <t>[0.32331075 0.81142697 0.55286066]</t>
         </is>
       </c>
     </row>
@@ -832,16 +832,16 @@
         <v>0.01651990426930356</v>
       </c>
       <c r="F14" t="n">
-        <v>1.118143475279365</v>
+        <v>0.9303630867117467</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[0.00711233 0.0271026  0.0165723 ]</t>
+          <t>[0.00798383 0.02936065 0.01640184]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[0.55332117 1.67143999 1.16442908]</t>
+          <t>[0.49447166 1.51776669 0.9532891 ]</t>
         </is>
       </c>
     </row>
@@ -863,19 +863,19 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.005717765176266288</v>
+        <v>0.005717765176266289</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3773879296299658</v>
+        <v>0.3247761258331701</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[-0.00459325  0.01815962  0.00650574]</t>
+          <t>[-0.0034268   0.01584361  0.00601671]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[0.05639402 0.98092871 0.35106361]</t>
+          <t>[0.1079437  0.83840219 0.32550254]</t>
         </is>
       </c>
     </row>
@@ -900,16 +900,16 @@
         <v>-0.02242168664825935</v>
       </c>
       <c r="F16" t="n">
-        <v>1.884322753687295</v>
+        <v>1.542817494418654</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[-0.02926092 -0.01163297 -0.02125056]</t>
+          <t>[-0.03107338 -0.01269793 -0.02139324]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[1.43893011 2.39938352 1.94483999]</t>
+          <t>[1.23571387 1.90213201 1.59175299]</t>
         </is>
       </c>
     </row>
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-0.005660924145965698</v>
+        <v>-0.005660924145965699</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6246259727631421</v>
+        <v>0.578538607816286</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[-0.01301108  0.00537992 -0.00495475]</t>
+          <t>[-0.01486202  0.00441403 -0.00565325]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>[0.27475535 0.96744844 0.5648839 ]</t>
+          <t>[0.26742397 0.83212385 0.54402722]</t>
         </is>
       </c>
     </row>
@@ -965,19 +965,19 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.008970301764405626</v>
+        <v>0.008970301764405613</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6801604489098068</v>
+        <v>0.5727440600274312</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[0.00119563 0.01580251 0.00836724]</t>
+          <t>[0.00050482 0.01741344 0.00802291]</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>[0.25105478 1.17842305 0.68107853]</t>
+          <t>[0.28977233 1.00201909 0.56374487]</t>
         </is>
       </c>
     </row>
@@ -1002,16 +1002,16 @@
         <v>-0.02472668963298614</v>
       </c>
       <c r="F19" t="n">
-        <v>2.09624573596638</v>
+        <v>1.716199947456068</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[-0.03269811 -0.01723276 -0.02383371]</t>
+          <t>[-0.03293167 -0.01881047 -0.0258492 ]</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[1.69189029 2.49852679 2.14391164]</t>
+          <t>[1.45824799 2.00340959 1.79788428]</t>
         </is>
       </c>
     </row>
@@ -1033,19 +1033,19 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.006653399285199198</v>
+        <v>0.0066533992851992</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9051493365796104</v>
+        <v>1.004700427881335</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[-0.00396102  0.01808992  0.00656514]</t>
+          <t>[-0.00321756  0.01483952  0.00702754]</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>[0.6702165  1.37991031 0.93954015]</t>
+          <t>[0.76469132 1.41062747 1.04916463]</t>
         </is>
       </c>
     </row>
@@ -1067,19 +1067,19 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.007332723518141737</v>
+        <v>0.007332723518141741</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6777019619536616</v>
+        <v>0.7427666114071121</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[-0.00290734  0.01873846  0.00692096]</t>
+          <t>[-0.0027389   0.01799631  0.00712658]</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>[0.40226537 1.18863349 0.71419948]</t>
+          <t>[0.48751263 1.13827864 0.73889388]</t>
         </is>
       </c>
     </row>
@@ -1101,19 +1101,19 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.001562980780723354</v>
+        <v>0.001562980780723355</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8272850578079027</v>
+        <v>0.8876885310391388</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[-0.00967402  0.010734    0.00100198]</t>
+          <t>[-0.00652756  0.010965    0.00172324]</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>[0.57600713 1.04867361 0.79824021]</t>
+          <t>[0.66610537 1.17847584 0.90494977]</t>
         </is>
       </c>
     </row>
@@ -1138,16 +1138,16 @@
         <v>-0.01057861424598265</v>
       </c>
       <c r="F23" t="n">
-        <v>1.515332737137285</v>
+        <v>1.385311008872206</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[-0.01914859 -0.00154691 -0.01000345]</t>
+          <t>[-1.77894485e-02  9.52376428e-05 -9.76388055e-03]</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>[1.22076626 1.99980521 1.59998881]</t>
+          <t>[1.15602146 1.756001   1.40809366]</t>
         </is>
       </c>
     </row>
@@ -1172,16 +1172,16 @@
         <v>0.008067185876828201</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5392835997975918</v>
+        <v>0.5166066886580729</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[-0.00247513  0.01929592  0.00843701]</t>
+          <t>[-0.00380966  0.01697485  0.00773928]</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>[0.21405627 1.24600875 0.55783594]</t>
+          <t>[0.225428   0.95308354 0.54022042]</t>
         </is>
       </c>
     </row>
@@ -1203,19 +1203,19 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-0.02592184253343157</v>
+        <v>-0.02592184253343155</v>
       </c>
       <c r="F25" t="n">
-        <v>1.823905432726797</v>
+        <v>1.494365710778863</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[-0.03686584 -0.01697961 -0.02665674]</t>
+          <t>[-0.03676683 -0.0169786  -0.02540502]</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>[1.34820146 2.5042075  1.95777834]</t>
+          <t>[1.05819253 2.02192528 1.54506787]</t>
         </is>
       </c>
     </row>
@@ -1240,16 +1240,16 @@
         <v>0.01135966185978828</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8672263048332211</v>
+        <v>0.9105199766885351</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[0.00210944 0.02033722 0.01126978]</t>
+          <t>[-0.0005961   0.02114097  0.01071639]</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>[0.55134965 1.46486421 0.92756687]</t>
+          <t>[0.60122001 1.3350774  0.90677268]</t>
         </is>
       </c>
     </row>
@@ -1271,19 +1271,19 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>-0.00174988804567965</v>
+        <v>-0.001749888045679644</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4140296005545079</v>
+        <v>0.4015721408820837</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[-0.00916468  0.00860895 -0.00077375]</t>
+          <t>[-0.00804671  0.00861401 -0.00044337]</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>[0.08871706 0.70567041 0.36946495]</t>
+          <t>[0.21315419 0.60534896 0.35156604]</t>
         </is>
       </c>
     </row>
@@ -1305,19 +1305,19 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-0.001479116419828557</v>
+        <v>-0.001479116419828556</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3195042395803307</v>
+        <v>0.4741301269716885</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>[-0.0090899   0.00524414 -0.00146555]</t>
+          <t>[-0.00892768  0.00611992 -0.00126969]</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>[0.2386362  0.43849232 0.27628578]</t>
+          <t>[0.31874444 0.62287528 0.43344953]</t>
         </is>
       </c>
     </row>
@@ -1339,19 +1339,19 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-0.02202744494179586</v>
+        <v>-0.0220274449417959</v>
       </c>
       <c r="F29" t="n">
-        <v>2.100705969385986</v>
+        <v>1.757655657516029</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>[-0.02929576 -0.0149051  -0.02146883]</t>
+          <t>[-0.03105176 -0.0131555  -0.02193533]</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>[1.74790583 2.7389766  2.20325863]</t>
+          <t>[1.46479853 2.04366283 1.83158456]</t>
         </is>
       </c>
     </row>
@@ -1376,16 +1376,16 @@
         <v>0.01387373258216804</v>
       </c>
       <c r="F30" t="n">
-        <v>0.940665225110707</v>
+        <v>0.9196933069450576</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>[0.00409576 0.02663592 0.01423737]</t>
+          <t>[0.00491352 0.02524044 0.01445255]</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>[0.46389727 1.61223064 0.97697393]</t>
+          <t>[0.52697665 1.4576266  0.99198382]</t>
         </is>
       </c>
     </row>
@@ -1407,19 +1407,19 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-0.001630137346621863</v>
+        <v>-0.001630137346621859</v>
       </c>
       <c r="F31" t="n">
-        <v>0.242577196359255</v>
+        <v>0.3263636866551277</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>[-0.00986887  0.00752229 -0.00142161]</t>
+          <t>[-0.00930041  0.00812997 -0.00208336]</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>[0.16956064 0.35075436 0.20180665]</t>
+          <t>[0.24252408 0.39517965 0.26344017]</t>
         </is>
       </c>
     </row>
@@ -1444,16 +1444,16 @@
         <v>0.01424717494671256</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9370495528388856</v>
+        <v>0.8521560894243826</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>[0.0051025  0.02649148 0.01488514]</t>
+          <t>[0.0049741  0.02361656 0.01464516]</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>[0.43415505 1.60497594 1.04250657]</t>
+          <t>[0.45251582 1.43492609 0.91959868]</t>
         </is>
       </c>
     </row>
@@ -1475,19 +1475,19 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>-0.007600842232639793</v>
+        <v>-0.007600842232639794</v>
       </c>
       <c r="F33" t="n">
-        <v>0.6296997488688482</v>
+        <v>0.5743062771602474</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>[-0.01387747  0.00020145 -0.00733919]</t>
+          <t>[-0.0142317  -0.00230826 -0.00794946]</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>[0.20838012 0.94106833 0.56073393]</t>
+          <t>[0.34550549 0.89473942 0.58328097]</t>
         </is>
       </c>
     </row>
@@ -1509,19 +1509,19 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-0.003948345184145851</v>
+        <v>-0.00394834518414586</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3937883783513761</v>
+        <v>0.4266316016632641</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>[-0.01277641  0.00584498 -0.00389855]</t>
+          <t>[-0.01367699  0.00601856 -0.00393725]</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>[0.20277742 0.80466086 0.35989603]</t>
+          <t>[0.25296379 0.64631057 0.38498408]</t>
         </is>
       </c>
     </row>
@@ -1543,19 +1543,19 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.006997380403772616</v>
+        <v>0.006997380403772621</v>
       </c>
       <c r="F35" t="n">
-        <v>0.5910704259338596</v>
+        <v>0.6986908043374377</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>[0.00101295 0.01494062 0.00745755]</t>
+          <t>[9.43598512e-06 1.57829903e-02 7.23487351e-03]</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>[0.36717338 1.00067877 0.63104633]</t>
+          <t>[0.45505331 0.9562927  0.68864835]</t>
         </is>
       </c>
     </row>
@@ -1577,19 +1577,19 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>-0.01259920390744117</v>
+        <v>-0.01259920390744118</v>
       </c>
       <c r="F36" t="n">
-        <v>1.839437995454849</v>
+        <v>1.671211715570201</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>[-0.02091085 -0.00507921 -0.01257958]</t>
+          <t>[-0.02014909 -0.00414295 -0.01224739]</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>[1.62210375 2.25572689 1.91727612]</t>
+          <t>[1.4711449  1.98376867 1.69275175]</t>
         </is>
       </c>
     </row>
@@ -1611,19 +1611,19 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.007907178175637592</v>
+        <v>0.007907178175637589</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9273177720883911</v>
+        <v>0.8754973188732343</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>[-0.00016501  0.01529885  0.00794763]</t>
+          <t>[0.00112789 0.01519725 0.00767046]</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>[0.56429316 1.30507815 0.95829083]</t>
+          <t>[0.64870829 1.18401366 0.86522823]</t>
         </is>
       </c>
     </row>
@@ -1648,16 +1648,16 @@
         <v>0.00954708025318798</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9196182402222457</v>
+        <v>0.8061418951240583</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>[0.00330828 0.0145284  0.00943535]</t>
+          <t>[0.0015413  0.01719504 0.00936626]</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>[0.53465187 1.3553107  0.9433774 ]</t>
+          <t>[0.57204357 1.16518314 0.82615999]</t>
         </is>
       </c>
     </row>
@@ -1679,19 +1679,19 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.007702571669498956</v>
+        <v>0.007702571669498955</v>
       </c>
       <c r="F39" t="n">
-        <v>0.5272434308531945</v>
+        <v>0.454220480599287</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>[-0.00465187  0.01524073  0.00734065]</t>
+          <t>[-0.00329979  0.01520521  0.00713055]</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>[0.15471331 1.00212398 0.51434742]</t>
+          <t>[0.1803603  0.78067246 0.40031187]</t>
         </is>
       </c>
     </row>
@@ -1713,19 +1713,19 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.009227849966489806</v>
+        <v>0.009227849966489812</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9828173391655837</v>
+        <v>0.8984984846597343</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>[0.00334256 0.01802353 0.00955051]</t>
+          <t>[0.00110511 0.01533659 0.00906103]</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>[0.67683546 1.39590084 0.99280698]</t>
+          <t>[0.70574038 1.23317042 0.91221037]</t>
         </is>
       </c>
     </row>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>-0.001869098866355379</v>
+        <v>-0.001869098866355376</v>
       </c>
       <c r="F41" t="n">
-        <v>0.362487135720143</v>
+        <v>0.3475120490524475</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>[-0.01124274  0.00736354 -0.00270325]</t>
+          <t>[-0.0115554   0.00307704 -0.00427803]</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>[0.06844604 0.61829003 0.33426498]</t>
+          <t>[0.14048887 0.60520515 0.31628118]</t>
         </is>
       </c>
     </row>
@@ -1781,19 +1781,19 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-0.004581012862366184</v>
+        <v>-0.004581012862366185</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3277813147808291</v>
+        <v>0.2692786195798967</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>[-0.01492146  0.00608434 -0.00472844]</t>
+          <t>[-0.01219977  0.00603349 -0.00380627]</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>[0.03557645 0.76952513 0.30086948]</t>
+          <t>[0.06167013 0.57383628 0.19778932]</t>
         </is>
       </c>
     </row>
@@ -1815,19 +1815,19 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.0004660950716595534</v>
+        <v>0.0004660950716595599</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4851197630406351</v>
+        <v>0.5131367119254001</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>[-0.00874477  0.0098543   0.0003393 ]</t>
+          <t>[-0.00998671  0.01108087  0.00137297]</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>[0.32078296 0.82652561 0.45469217]</t>
+          <t>[0.25896547 0.66858434 0.4435196 ]</t>
         </is>
       </c>
     </row>
@@ -1852,16 +1852,16 @@
         <v>-0.001124682779846111</v>
       </c>
       <c r="F44" t="n">
-        <v>0.6460983636957467</v>
+        <v>0.7500942396438106</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>[-0.00817586  0.00509426 -0.00103959]</t>
+          <t>[-0.00893118  0.00703839 -0.00091988]</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>[0.40891392 0.99901878 0.64597336]</t>
+          <t>[0.57713479 0.9398138  0.72233735]</t>
         </is>
       </c>
     </row>
@@ -1883,19 +1883,19 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.01499706825410689</v>
+        <v>0.01499706825410688</v>
       </c>
       <c r="F45" t="n">
-        <v>1.583931606317892</v>
+        <v>1.379437461866484</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>[0.00852886 0.0226424  0.01533223]</t>
+          <t>[0.00800271 0.02133828 0.01459235]</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>[1.35016344 2.01259315 1.66378897]</t>
+          <t>[1.15579446 1.74252697 1.39953644]</t>
         </is>
       </c>
     </row>
@@ -1917,19 +1917,19 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-0.008078081817924597</v>
+        <v>-0.00807808181792459</v>
       </c>
       <c r="F46" t="n">
-        <v>1.027589895989142</v>
+        <v>0.9237317523648814</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>[-0.01467473  0.00342913 -0.0068772 ]</t>
+          <t>[-0.01576092  0.00136459 -0.00822616]</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>[0.68341348 1.42582745 1.06449486]</t>
+          <t>[0.6872172  1.21747496 0.92530399]</t>
         </is>
       </c>
     </row>
@@ -1951,19 +1951,19 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-0.00263214121973961</v>
+        <v>-0.002632141219739616</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2769638319203634</v>
+        <v>0.2518426905509923</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>[-0.01229068  0.00717919 -0.00243313]</t>
+          <t>[-0.00968712  0.00590335 -0.00230399]</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>[0.10414849 0.61308175 0.22112987]</t>
+          <t>[0.06073162 0.52422945 0.21341551]</t>
         </is>
       </c>
     </row>
@@ -1985,19 +1985,19 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-0.0003678293786391939</v>
+        <v>-0.0003678293786392007</v>
       </c>
       <c r="F48" t="n">
-        <v>0.491993412173139</v>
+        <v>0.591653591565057</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>[-0.00611598  0.00542562 -0.00062519]</t>
+          <t>[-0.01040513  0.00542091 -0.00076286]</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>[0.23557255 0.8115197  0.46555681]</t>
+          <t>[0.3418331 0.8115883 0.5311143]</t>
         </is>
       </c>
     </row>
@@ -2019,19 +2019,19 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.002143832592859493</v>
+        <v>0.002143832592859501</v>
       </c>
       <c r="F49" t="n">
-        <v>0.6076350531898103</v>
+        <v>0.7089079773523139</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>[-0.00397492  0.00871795  0.00232338]</t>
+          <t>[-0.00419526  0.00897323  0.00239583]</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>[0.37922179 0.89396119 0.59195769]</t>
+          <t>[0.50156364 0.89662176 0.68621081]</t>
         </is>
       </c>
     </row>
@@ -2053,19 +2053,19 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.008385468664237564</v>
+        <v>0.008385468664237583</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6585935880658202</v>
+        <v>0.5518423417529993</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[0.00138954 0.01570523 0.00791793]</t>
+          <t>[-0.00050127  0.01742872  0.00788336]</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>[0.2272788  1.08995212 0.62401184]</t>
+          <t>[0.30863747 1.00055258 0.54872855]</t>
         </is>
       </c>
     </row>
@@ -2087,19 +2087,19 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-0.003312260066775677</v>
+        <v>-0.003312260066775684</v>
       </c>
       <c r="F51" t="n">
-        <v>0.7412041922686018</v>
+        <v>0.8071866261041966</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[-0.01160698  0.00234911 -0.00380617]</t>
+          <t>[-0.01156097  0.0030499  -0.00347726]</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>[0.46898915 1.24911236 0.76303412]</t>
+          <t>[0.61033701 1.01161934 0.78720053]</t>
         </is>
       </c>
     </row>
@@ -2121,19 +2121,19 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>-0.007083667132177278</v>
+        <v>-0.007083667132177271</v>
       </c>
       <c r="F52" t="n">
-        <v>0.5348141028641217</v>
+        <v>0.5625911023443945</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[-0.01444863 -0.00210006 -0.00738818]</t>
+          <t>[-0.01201437 -0.00261277 -0.00738014]</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>[0.17972159 1.01300893 0.54041732]</t>
+          <t>[0.16583345 0.95312003 0.54398029]</t>
         </is>
       </c>
     </row>
@@ -2155,19 +2155,19 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.005014293073162005</v>
+        <v>0.005014293073161998</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8126724566789604</v>
+        <v>0.7910625723654316</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>[-0.0010179   0.01087248  0.00515417]</t>
+          <t>[-0.00157767  0.01332736  0.00606521]</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>[0.50176224 1.16554018 0.82316724]</t>
+          <t>[0.46723508 1.03625023 0.78646865]</t>
         </is>
       </c>
     </row>
@@ -2189,19 +2189,19 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>-0.006550377172523188</v>
+        <v>-0.006550377172523192</v>
       </c>
       <c r="F54" t="n">
-        <v>0.4459558678599816</v>
+        <v>0.4380675409572853</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[-0.01240082 -0.00028723 -0.00634474]</t>
+          <t>[-0.01128082 -0.00140718 -0.00669816]</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>[0.13565876 0.71155034 0.35953992]</t>
+          <t>[0.20785695 0.76391744 0.42904381]</t>
         </is>
       </c>
     </row>
@@ -2223,19 +2223,19 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.00414635450186638</v>
+        <v>0.004146354501866381</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2731968869296427</v>
+        <v>0.256435418708013</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>[-0.00148887  0.01024298  0.00357829]</t>
+          <t>[-0.00150829  0.00981944  0.00451454]</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>[0.04441097 0.5925668  0.1633165 ]</t>
+          <t>[0.05279423 0.5098894  0.20835771]</t>
         </is>
       </c>
     </row>
@@ -2257,19 +2257,19 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>-0.005346363980602817</v>
+        <v>-0.005346363980602816</v>
       </c>
       <c r="F56" t="n">
-        <v>0.8949749782087365</v>
+        <v>0.8914790881637342</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>[-0.01276093  0.00176171 -0.00520954]</t>
+          <t>[-0.01401909  0.00536382 -0.00493495]</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>[0.64112876 1.30431765 0.90287809]</t>
+          <t>[0.65440307 1.13203925 0.88456932]</t>
         </is>
       </c>
     </row>
@@ -2291,19 +2291,19 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.000955006353917931</v>
+        <v>0.0009550063539179341</v>
       </c>
       <c r="F57" t="n">
-        <v>0.5016325594335957</v>
+        <v>0.5776051971775302</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>[-0.00683245  0.0065862   0.00021002]</t>
+          <t>[-0.00742817  0.00606007  0.00085147]</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>[0.2164414  0.79173698 0.44493619]</t>
+          <t>[0.30276106 0.84518115 0.54000069]</t>
         </is>
       </c>
     </row>
@@ -2325,19 +2325,19 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.00012155583881032</v>
+        <v>0.0001215558388103345</v>
       </c>
       <c r="F58" t="n">
-        <v>0.5523034432549758</v>
+        <v>0.6439505495745164</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>[-0.00676818  0.00538749 -0.00036009]</t>
+          <t>[-0.00788434  0.00395905 -0.0004805 ]</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>[0.23716854 0.87133049 0.53738566]</t>
+          <t>[0.34244396 0.87962028 0.6343746 ]</t>
         </is>
       </c>
     </row>
@@ -2359,19 +2359,19 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.002643297881551206</v>
+        <v>0.002643297881551196</v>
       </c>
       <c r="F59" t="n">
-        <v>0.4560358828006682</v>
+        <v>0.579515560954192</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>[-0.00371454  0.01604952  0.00385436]</t>
+          <t>[-0.00487656  0.01215548  0.00298467]</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>[0.29548454 0.73408362 0.43312269]</t>
+          <t>[0.3231932  0.76214325 0.52637623]</t>
         </is>
       </c>
     </row>
@@ -2393,19 +2393,19 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>-0.01152484810158027</v>
+        <v>-0.01152484810158026</v>
       </c>
       <c r="F60" t="n">
-        <v>1.162976890969441</v>
+        <v>1.094565986524452</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>[-0.01704152 -0.00630442 -0.01162179]</t>
+          <t>[-0.01737724 -0.00411695 -0.01100748]</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>[0.93943096 1.69629125 1.24359285]</t>
+          <t>[0.86746708 1.33856428 1.11737777]</t>
         </is>
       </c>
     </row>
@@ -2427,19 +2427,19 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.01878832552087401</v>
+        <v>0.018788325520874</v>
       </c>
       <c r="F61" t="n">
-        <v>1.25743886469806</v>
+        <v>1.073196613469503</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>[0.00866833 0.02746591 0.01903621]</t>
+          <t>[0.01079726 0.02965257 0.01928623]</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>[0.69392958 1.84330121 1.30463413]</t>
+          <t>[0.75063916 1.60227959 1.13761018]</t>
         </is>
       </c>
     </row>
@@ -2461,19 +2461,19 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.009262817628393698</v>
+        <v>0.009262817628393693</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7409965774040288</v>
+        <v>0.6011732420918885</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>[0.00175599 0.01505792 0.00890933]</t>
+          <t>[0.00265134 0.0160488  0.00898388]</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>[0.39830537 1.22765156 0.76617989]</t>
+          <t>[0.27273099 0.91390814 0.5648933 ]</t>
         </is>
       </c>
     </row>
@@ -2495,19 +2495,19 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.002165782704448302</v>
+        <v>0.002165782704448303</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1935266423302783</v>
+        <v>0.219749413587227</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>[-0.00454297  0.00900643  0.00210703]</t>
+          <t>[-0.00479122  0.00817094  0.00215304]</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>[0.06257548 0.37371345 0.13374472]</t>
+          <t>[0.02619989 0.40571121 0.16648046]</t>
         </is>
       </c>
     </row>
@@ -2532,16 +2532,16 @@
         <v>-0.01528540617365273</v>
       </c>
       <c r="F64" t="n">
-        <v>1.375245281420534</v>
+        <v>1.139381425333558</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>[-0.02444664 -0.00822424 -0.01573168]</t>
+          <t>[-0.02272628 -0.00678028 -0.0141508 ]</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>[0.92370973 1.91805379 1.43765099]</t>
+          <t>[0.84265672 1.51218744 1.1137732 ]</t>
         </is>
       </c>
     </row>
@@ -2563,19 +2563,19 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-0.006401020557872629</v>
+        <v>-0.006401020557872627</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4736671541441304</v>
+        <v>0.387716878215519</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>[-0.01858514 -0.00030401 -0.00745333]</t>
+          <t>[-0.01729493  0.00312412 -0.0061532 ]</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>[0.16867856 1.225057   0.58165757]</t>
+          <t>[0.03303517 0.85276884 0.36053068]</t>
         </is>
       </c>
     </row>
@@ -2597,19 +2597,19 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-0.006862766939003939</v>
+        <v>-0.00686276693900394</v>
       </c>
       <c r="F66" t="n">
-        <v>0.8195053113349652</v>
+        <v>0.7200083043817215</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>[-0.016784   -0.00016814 -0.00812301]</t>
+          <t>[-1.37795517e-02  9.39747936e-05 -6.75160659e-03]</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>[0.49833766 1.23279486 0.89535702]</t>
+          <t>[0.49464223 0.99316309 0.72087623]</t>
         </is>
       </c>
     </row>
@@ -2631,19 +2631,19 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>-0.004808718343552541</v>
+        <v>-0.004808718343552537</v>
       </c>
       <c r="F67" t="n">
-        <v>0.7292661416934537</v>
+        <v>0.669967063328713</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>[-0.01189049  0.00420038 -0.00445677]</t>
+          <t>[-0.01464868  0.00217123 -0.00482787]</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>[0.42802187 1.23206566 0.77070979]</t>
+          <t>[0.4320078  0.94959579 0.65800454]</t>
         </is>
       </c>
     </row>
@@ -2665,19 +2665,19 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.004577859640526293</v>
+        <v>0.004577859640526296</v>
       </c>
       <c r="F68" t="n">
-        <v>0.3566066883275205</v>
+        <v>0.3827804361010594</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>[-0.0037567   0.01502373  0.00445383]</t>
+          <t>[-0.00310267  0.0161262   0.00521499]</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>[0.14166469 0.85327534 0.33411934]</t>
+          <t>[0.17462257 0.65609936 0.35100253]</t>
         </is>
       </c>
     </row>
@@ -2702,16 +2702,16 @@
         <v>-0.01215084448393538</v>
       </c>
       <c r="F69" t="n">
-        <v>1.030227400234842</v>
+        <v>1.225319684886406</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>[-0.01810979 -0.00639023 -0.0125238 ]</t>
+          <t>[-0.01758703 -0.00669261 -0.01299612]</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>[0.789659   1.42946021 1.08657595]</t>
+          <t>[1.0314929  1.42879772 1.24696468]</t>
         </is>
       </c>
     </row>
@@ -2733,19 +2733,19 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>-0.006063891183062491</v>
+        <v>-0.006063891183062482</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6538774187985233</v>
+        <v>0.6963791468316959</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>[-0.01095907 -0.00036152 -0.00587058]</t>
+          <t>[-0.01130687 -0.00073285 -0.00630054]</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>[0.40911589 0.94432883 0.65940745]</t>
+          <t>[0.49163459 0.9391772  0.69575376]</t>
         </is>
       </c>
     </row>
@@ -2770,16 +2770,16 @@
         <v>0.004970406741599752</v>
       </c>
       <c r="F71" t="n">
-        <v>0.3735151684572935</v>
+        <v>0.4017268380653247</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>[-0.00081233  0.01154616  0.00530597]</t>
+          <t>[-0.00068502  0.01116269  0.00482816]</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>[0.15400267 0.68116611 0.35166478]</t>
+          <t>[0.18526649 0.65545889 0.38318126]</t>
         </is>
       </c>
     </row>
@@ -2801,19 +2801,19 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.00364272962063181</v>
+        <v>0.003642729620631803</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2738214750558194</v>
+        <v>0.2865911119597149</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>[-0.00187381  0.0098769   0.00381122]</t>
+          <t>[-0.00033911  0.00915341  0.00453068]</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>[0.08271179 0.54211797 0.24761106]</t>
+          <t>[0.09649885 0.49550379 0.25459758]</t>
         </is>
       </c>
     </row>
@@ -2835,19 +2835,19 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>-0.001098263965591302</v>
+        <v>-0.001098263965591287</v>
       </c>
       <c r="F73" t="n">
-        <v>0.243155300128169</v>
+        <v>0.2856821793929666</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>[-0.00889907  0.00694418 -0.00102946]</t>
+          <t>[-0.01182471  0.00664205 -0.00051012]</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>[0.11839359 0.40807625 0.17579382]</t>
+          <t>[0.15282075 0.49289659 0.24567116]</t>
         </is>
       </c>
     </row>
@@ -2869,19 +2869,19 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-0.004154877056429156</v>
+        <v>-0.004154877056429161</v>
       </c>
       <c r="F74" t="n">
-        <v>0.2844209769553582</v>
+        <v>0.2729062943123556</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>[-0.00983039  0.00174285 -0.00419559]</t>
+          <t>[-0.00989432  0.00228407 -0.00417196]</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>[0.06529427 0.55383568 0.21642319]</t>
+          <t>[0.07410913 0.49189696 0.19879808]</t>
         </is>
       </c>
     </row>
@@ -2903,19 +2903,19 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>-0.01530702361442968</v>
+        <v>-0.01530702361442966</v>
       </c>
       <c r="F75" t="n">
-        <v>1.361153063013815</v>
+        <v>1.254331138844856</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>[-0.02367443 -0.00874409 -0.01524651]</t>
+          <t>[-0.01993116 -0.00894695 -0.014969  ]</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>[0.95352977 1.81281589 1.37529175]</t>
+          <t>[1.0742476  1.48727775 1.28754584]</t>
         </is>
       </c>
     </row>
@@ -2940,16 +2940,16 @@
         <v>0.01885429051420539</v>
       </c>
       <c r="F76" t="n">
-        <v>1.262925155505416</v>
+        <v>1.06940698492092</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>[0.0106708  0.02727811 0.01899695]</t>
+          <t>[0.01016814 0.02766909 0.01889118]</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>[0.74318451 1.832331   1.35604814]</t>
+          <t>[0.61648109 1.46403    1.11615816]</t>
         </is>
       </c>
     </row>
@@ -2971,19 +2971,19 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.00209750166550739</v>
+        <v>0.002097501665507391</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1909320673855933</v>
+        <v>0.2196923833297115</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>[-0.00731586  0.0089395   0.00182454]</t>
+          <t>[-0.00562494  0.00904565  0.00281093]</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>[0.08794026 0.30815138 0.11331134]</t>
+          <t>[0.09292384 0.33810115 0.12749759]</t>
         </is>
       </c>
     </row>
@@ -3008,16 +3008,16 @@
         <v>0.008272347609951575</v>
       </c>
       <c r="F78" t="n">
-        <v>0.7396130081815921</v>
+        <v>0.8066215632137412</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>[-0.00068763  0.01934339  0.00852207]</t>
+          <t>[0.0014767  0.01571055 0.00810032]</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>[0.44084774 1.19884536 0.74537599]</t>
+          <t>[0.48141147 1.15745436 0.80894144]</t>
         </is>
       </c>
     </row>
@@ -3039,19 +3039,19 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>-0.002527508319782045</v>
+        <v>-0.00252750831978204</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8264552225857968</v>
+        <v>0.8153983255042094</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>[-0.01068382  0.00469019 -0.00282071]</t>
+          <t>[-0.01252809  0.00597452 -0.00260987]</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>[0.60761991 1.29404872 0.89916834]</t>
+          <t>[0.57825451 1.04605267 0.80756895]</t>
         </is>
       </c>
     </row>
@@ -3073,19 +3073,19 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.001219250206602918</v>
+        <v>0.001219250206602911</v>
       </c>
       <c r="F80" t="n">
-        <v>0.673664159269827</v>
+        <v>0.725372412867307</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>[-0.00662351  0.00840655  0.00047109]</t>
+          <t>[-0.00568487  0.00865625  0.00154743]</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>[0.41513753 0.99450923 0.68250748]</t>
+          <t>[0.41786642 0.94002541 0.71210429]</t>
         </is>
       </c>
     </row>
@@ -3107,19 +3107,19 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.004617300736206788</v>
+        <v>0.0046173007362068</v>
       </c>
       <c r="F81" t="n">
-        <v>0.4183647905037357</v>
+        <v>0.5134448036026469</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>[-0.00292703  0.01226219  0.00514144]</t>
+          <t>[-0.00488911  0.01147171  0.00360267]</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>[0.2403616  0.79837455 0.41583745]</t>
+          <t>[0.33759408 0.72301321 0.4958358 ]</t>
         </is>
       </c>
     </row>
@@ -3141,19 +3141,19 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>-0.008339180944864169</v>
+        <v>-0.008339180944864161</v>
       </c>
       <c r="F82" t="n">
-        <v>1.198000007489009</v>
+        <v>1.142177089541845</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>[-0.01468125  0.00035669 -0.00777497]</t>
+          <t>[-0.01842354 -0.00153988 -0.00861168]</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>[0.94825323 1.57037525 1.28507771]</t>
+          <t>[0.90033866 1.46468042 1.14564924]</t>
         </is>
       </c>
     </row>
@@ -3175,19 +3175,19 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-0.004730406010039184</v>
+        <v>-0.004730406010039187</v>
       </c>
       <c r="F83" t="n">
-        <v>0.8393577075131079</v>
+        <v>0.9363045203924936</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>[-0.01178931  0.00332422 -0.00461662]</t>
+          <t>[-0.01189394  0.00281521 -0.0050862 ]</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>[0.53773127 1.17177234 0.82966027]</t>
+          <t>[0.73583371 1.20917734 0.95074566]</t>
         </is>
       </c>
     </row>
@@ -3209,19 +3209,19 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.0002931788814498531</v>
+        <v>0.0002931788814498585</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7498057238115996</v>
+        <v>0.7850795895085922</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>[-0.00738523  0.00964645  0.0003968 ]</t>
+          <t>[-0.00893676  0.00791522 -0.0007938 ]</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>[0.58022067 1.03000741 0.7976043 ]</t>
+          <t>[0.51600381 0.96649219 0.72991609]</t>
         </is>
       </c>
     </row>
@@ -3246,16 +3246,16 @@
         <v>-0.01032077320481787</v>
       </c>
       <c r="F85" t="n">
-        <v>0.8595163662350942</v>
+        <v>0.8548794403429189</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>[-0.01741505  0.00018317 -0.00998003]</t>
+          <t>[-0.02248958 -0.00055159 -0.0112339 ]</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>[0.4260177  1.25098705 0.80801693]</t>
+          <t>[0.61922289 1.34352776 0.94850712]</t>
         </is>
       </c>
     </row>
@@ -3277,19 +3277,19 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>-0.01528756813844087</v>
+        <v>-0.01528756813844085</v>
       </c>
       <c r="F86" t="n">
-        <v>1.414405278693243</v>
+        <v>1.178605497643759</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>[-0.0237881  -0.0073892  -0.01500591]</t>
+          <t>[-0.02434609 -0.00630929 -0.01423955]</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>[0.98663819 1.95296362 1.46319056]</t>
+          <t>[0.91921448 1.57719096 1.24964242]</t>
         </is>
       </c>
     </row>
@@ -3314,16 +3314,16 @@
         <v>0.001409143649717585</v>
       </c>
       <c r="F87" t="n">
-        <v>0.6335411831092033</v>
+        <v>0.6817368947049243</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>[-0.00754767  0.00870904  0.00051168]</t>
+          <t>[-0.00609567  0.00885052  0.00021515]</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>[0.42622728 0.95603374 0.63466781]</t>
+          <t>[0.37443805 0.92348829 0.66554309]</t>
         </is>
       </c>
     </row>
@@ -3345,19 +3345,19 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.007053101226182984</v>
+        <v>0.007053101226182996</v>
       </c>
       <c r="F88" t="n">
-        <v>0.7000848137328471</v>
+        <v>0.6744872259683401</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>[-0.00488019  0.01549375  0.00746302]</t>
+          <t>[-0.00391398  0.01477326  0.00597671]</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>[0.44646825 1.23348056 0.73132049]</t>
+          <t>[0.46253511 0.8961421  0.63480946]</t>
         </is>
       </c>
     </row>
@@ -3379,19 +3379,19 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.005655147200049051</v>
+        <v>0.005655147200049058</v>
       </c>
       <c r="F89" t="n">
-        <v>0.5229817307591719</v>
+        <v>0.475747470368013</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>[-0.00075307  0.01597251  0.00612183]</t>
+          <t>[-0.00300658  0.01558725  0.0048025 ]</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>[0.23693272 1.01602418 0.51707147]</t>
+          <t>[0.19761144 0.73289072 0.42139916]</t>
         </is>
       </c>
     </row>
@@ -3413,19 +3413,19 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.004991896813226516</v>
+        <v>0.004991896813226524</v>
       </c>
       <c r="F90" t="n">
-        <v>0.3357732738919251</v>
+        <v>0.3238898043964435</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>[-0.00503186  0.01649653  0.00463469]</t>
+          <t>[-0.00496877  0.01380841  0.00521622]</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>[0.07995653 1.04962662 0.30267353]</t>
+          <t>[0.10193243 0.71678768 0.30988214]</t>
         </is>
       </c>
     </row>
@@ -3450,16 +3450,16 @@
         <v>0.01336603601520386</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9784537922687629</v>
+        <v>1.001770489579872</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>[0.00613092 0.01964946 0.01385013]</t>
+          <t>[0.00777872 0.02136389 0.01450938]</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>[0.65845291 1.27873582 0.99826373]</t>
+          <t>[0.81800517 1.31023174 1.05477564]</t>
         </is>
       </c>
     </row>
@@ -3484,16 +3484,16 @@
         <v>0.01778570818967565</v>
       </c>
       <c r="F92" t="n">
-        <v>1.24812203060036</v>
+        <v>1.204249966641579</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>[0.01129365 0.02450578 0.01811429]</t>
+          <t>[0.01311926 0.02429378 0.01898367]</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>[0.9251802  1.6528049  1.30990432]</t>
+          <t>[1.03656029 1.41755901 1.28481362]</t>
         </is>
       </c>
     </row>
@@ -3515,19 +3515,19 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>-0.004878524329479902</v>
+        <v>-0.004878524329479907</v>
       </c>
       <c r="F93" t="n">
-        <v>0.4340409460170258</v>
+        <v>0.4749684233800708</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>[-0.01389437  0.00436265 -0.00494477]</t>
+          <t>[-0.01237962  0.00509437 -0.00483949]</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>[0.20584196 0.83923062 0.41040788]</t>
+          <t>[0.31665063 0.798317   0.47346099]</t>
         </is>
       </c>
     </row>
@@ -3549,19 +3549,19 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.006024269300748567</v>
+        <v>0.006024269300748569</v>
       </c>
       <c r="F94" t="n">
-        <v>0.4809297772666294</v>
+        <v>0.5535237793094427</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>[-0.00214329  0.01509069  0.00609903]</t>
+          <t>[-0.00384587  0.01450036  0.00555377]</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>[0.2638659  0.96227202 0.4766305 ]</t>
+          <t>[0.33967403 0.88140848 0.54653794]</t>
         </is>
       </c>
     </row>
@@ -3583,19 +3583,19 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.003532345100411852</v>
+        <v>0.003532345100411853</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6139380489275593</v>
+        <v>0.7451492801487501</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>[0.00018628 0.01033113 0.00529824]</t>
+          <t>[-0.00151705  0.00799868  0.00371355]</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>[0.45330635 0.95299228 0.686813  ]</t>
+          <t>[0.47366876 1.01089687 0.72600716]</t>
         </is>
       </c>
     </row>
@@ -3620,16 +3620,16 @@
         <v>0.001884010402999858</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5407582023201106</v>
+        <v>0.6411532942887848</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>[-0.00615581  0.01003756  0.00255736]</t>
+          <t>[-0.00648107  0.01080783  0.00232909]</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>[0.34649505 0.87975887 0.5526593 ]</t>
+          <t>[0.29499026 0.87721349 0.58157805]</t>
         </is>
       </c>
     </row>
@@ -3651,19 +3651,19 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>-0.004359288327196825</v>
+        <v>-0.004359288327196812</v>
       </c>
       <c r="F97" t="n">
-        <v>0.833898593313926</v>
+        <v>0.8679475544310086</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>[-0.00935561  0.00327694 -0.00338905]</t>
+          <t>[-0.01011914  0.00152882 -0.00395066]</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>[0.57110732 1.18568721 0.84210989]</t>
+          <t>[0.69101393 1.18908404 0.92923505]</t>
         </is>
       </c>
     </row>
@@ -3688,16 +3688,16 @@
         <v>-0.007135273476516152</v>
       </c>
       <c r="F98" t="n">
-        <v>0.6033923750159732</v>
+        <v>0.5927000575292579</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>[-0.01342163 -0.00134116 -0.00734882]</t>
+          <t>[-0.0130725   0.00065088 -0.00683801]</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>[0.34059108 0.9150702  0.58893549]</t>
+          <t>[0.31053377 0.82451344 0.57620479]</t>
         </is>
       </c>
     </row>
@@ -3722,16 +3722,16 @@
         <v>0.01299674388243561</v>
       </c>
       <c r="F99" t="n">
-        <v>1.02848317479735</v>
+        <v>1.08114168292355</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>[0.00620887 0.01758352 0.01282224]</t>
+          <t>[0.00618581 0.01759268 0.01310673]</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>[0.73389955 1.27018706 1.04394945]</t>
+          <t>[0.911023   1.30845935 1.10934918]</t>
         </is>
       </c>
     </row>
@@ -3753,19 +3753,19 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.01537373416796705</v>
+        <v>0.01537373416796706</v>
       </c>
       <c r="F100" t="n">
-        <v>1.152542080767551</v>
+        <v>1.187122805913149</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>[0.0106505  0.02367602 0.01667682]</t>
+          <t>[0.01012189 0.02126052 0.01572762]</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>[0.90823398 1.55305622 1.19993182]</t>
+          <t>[1.01881084 1.41030513 1.21807095]</t>
         </is>
       </c>
     </row>
@@ -3787,19 +3787,19 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>-0.007492488276662291</v>
+        <v>-0.007492488276662286</v>
       </c>
       <c r="F101" t="n">
-        <v>0.6047752562666552</v>
+        <v>0.7095958730240408</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>[-0.01284603 -0.00017018 -0.00740083]</t>
+          <t>[-0.01547422 -0.00073182 -0.00808543]</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>[0.35507665 0.87344246 0.57803603]</t>
+          <t>[0.51510772 0.99039933 0.71534509]</t>
         </is>
       </c>
     </row>
@@ -3821,19 +3821,19 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.005780398008778156</v>
+        <v>0.005780398008778155</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8821586726018705</v>
+        <v>0.8837687779315656</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>[-0.00035859  0.01193616  0.00563677]</t>
+          <t>[-0.00155528  0.01182053  0.00630753]</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>[0.58168468 1.19606257 0.88800887]</t>
+          <t>[0.57691945 1.10251192 0.86360172]</t>
         </is>
       </c>
     </row>
@@ -3858,16 +3858,16 @@
         <v>0.01044957495052483</v>
       </c>
       <c r="F103" t="n">
-        <v>0.987303056118916</v>
+        <v>0.8929273872226035</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>[0.00499911 0.01898474 0.01075143]</t>
+          <t>[0.0045063  0.0184366  0.01081107]</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>[0.68676274 1.38438264 1.01555063]</t>
+          <t>[0.61768089 1.1525857  0.85806759]</t>
         </is>
       </c>
     </row>
@@ -3889,19 +3889,19 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-0.00267296587159949</v>
+        <v>-0.002672965871599474</v>
       </c>
       <c r="F104" t="n">
-        <v>0.713283191076983</v>
+        <v>1.014735159574615</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>[-0.00702696  0.00226869 -0.00236097]</t>
+          <t>[-0.00612977  0.00303723 -0.00155987]</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>[0.57594178 0.89997647 0.70726533]</t>
+          <t>[0.86176456 1.18157856 1.02459596]</t>
         </is>
       </c>
     </row>
@@ -3923,19 +3923,19 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>-0.003528295916085056</v>
+        <v>-0.00352829591608504</v>
       </c>
       <c r="F105" t="n">
-        <v>0.7961613579942564</v>
+        <v>1.09853423952151</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>[-0.00729886  0.00243264 -0.00324104]</t>
+          <t>[-0.00623387  0.00188027 -0.00204182]</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>[0.66225262 1.0006346  0.80461556]</t>
+          <t>[0.93053311 1.23722231 1.10528776]</t>
         </is>
       </c>
     </row>
@@ -3957,19 +3957,19 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.003028950313784647</v>
+        <v>0.003028950313784652</v>
       </c>
       <c r="F106" t="n">
-        <v>0.4819624241602541</v>
+        <v>0.6544299783800814</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>[-0.00208188  0.01317501  0.0050397 ]</t>
+          <t>[-0.00274765  0.01135867  0.00433257]</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>[0.33481242 0.83866473 0.47716952]</t>
+          <t>[0.4640229  0.82822959 0.63579465]</t>
         </is>
       </c>
     </row>
@@ -3991,19 +3991,19 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.003296202693303836</v>
+        <v>0.003296202693303838</v>
       </c>
       <c r="F107" t="n">
-        <v>0.4470285990374669</v>
+        <v>0.504609927866934</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>[-0.0044278   0.00990243  0.00264761]</t>
+          <t>[-0.00283277  0.01193335  0.0039761 ]</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>[0.15755326 0.86955813 0.43065287]</t>
+          <t>[0.26739945 1.02294792 0.53312648]</t>
         </is>
       </c>
     </row>
@@ -4025,19 +4025,19 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>-1.334142360551096e-05</v>
+        <v>-1.334142360550397e-05</v>
       </c>
       <c r="F108" t="n">
-        <v>0.5136300706825021</v>
+        <v>0.7819812249142287</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>[-4.88630694e-03  8.81514170e-03  4.84814290e-05]</t>
+          <t>[-0.00685279  0.00580711 -0.000495  ]</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>[0.39255129 0.60506474 0.46991242]</t>
+          <t>[0.56255248 0.87431552 0.75026927]</t>
         </is>
       </c>
     </row>
@@ -4059,19 +4059,19 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>-0.009211989096823449</v>
+        <v>-0.009211989096823445</v>
       </c>
       <c r="F109" t="n">
-        <v>0.8098318327159031</v>
+        <v>0.7261128037080368</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>[-0.01568445 -0.00220342 -0.00897594]</t>
+          <t>[-0.01606864 -0.00217    -0.0086629 ]</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>[0.4162218  1.24166835 0.83208756]</t>
+          <t>[0.46505208 1.03343272 0.69592578]</t>
         </is>
       </c>
     </row>
@@ -4093,19 +4093,19 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.009704055321105298</v>
+        <v>0.009704055321105309</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9853832712199131</v>
+        <v>1.134608737611231</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>[0.00144476 0.01961956 0.01065211]</t>
+          <t>[0.00236808 0.02033858 0.00978631]</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>[0.76032477 1.37720343 1.06802146]</t>
+          <t>[0.9179841  1.61230367 1.17705277]</t>
         </is>
       </c>
     </row>
@@ -4127,19 +4127,19 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>-0.003619675399613121</v>
+        <v>-0.003619675399613119</v>
       </c>
       <c r="F111" t="n">
-        <v>0.3030905731706975</v>
+        <v>0.3526593653521824</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>[-0.01022898  0.00336465 -0.00307868]</t>
+          <t>[-0.01312828  0.00238113 -0.00401853]</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>[0.1548019  0.61272885 0.23991913]</t>
+          <t>[0.20422264 0.53411945 0.28695734]</t>
         </is>
       </c>
     </row>
@@ -4161,19 +4161,19 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>-0.006708208003387947</v>
+        <v>-0.006708208003387939</v>
       </c>
       <c r="F112" t="n">
-        <v>0.6579506933613697</v>
+        <v>0.6777164010737895</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>[-0.01062259 -0.00202639 -0.00664164]</t>
+          <t>[-0.01107334 -0.00289106 -0.00660164]</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>[0.42470428 0.95573936 0.66193887]</t>
+          <t>[0.54350114 0.88890117 0.66781044]</t>
         </is>
       </c>
     </row>
@@ -4195,19 +4195,19 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-0.006638961384519993</v>
+        <v>-0.006638961384520007</v>
       </c>
       <c r="F113" t="n">
-        <v>0.6433247368191557</v>
+        <v>0.6388761311807173</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>[-0.01009535 -0.00149225 -0.00657503]</t>
+          <t>[-0.01008785  0.00110457 -0.00581626]</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>[0.40295037 0.91317794 0.63728221]</t>
+          <t>[0.50258489 0.84501337 0.62206506]</t>
         </is>
       </c>
     </row>
@@ -4229,19 +4229,19 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>-0.006656236931497349</v>
+        <v>-0.006656236931497347</v>
       </c>
       <c r="F114" t="n">
-        <v>0.6686566003778334</v>
+        <v>0.8282003242773325</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>[-0.01054727 -0.00209331 -0.0060936 ]</t>
+          <t>[-0.01040802 -0.00191818 -0.00656473]</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>[0.45650685 0.8529928  0.62625894]</t>
+          <t>[0.64056869 1.02410745 0.82025111]</t>
         </is>
       </c>
     </row>
@@ -4263,19 +4263,19 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>-0.004444857506068212</v>
+        <v>-0.004444857506068213</v>
       </c>
       <c r="F115" t="n">
-        <v>0.6076640342197177</v>
+        <v>0.791416326646799</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>[-0.00794798  0.0003579  -0.00387366]</t>
+          <t>[-9.00138089e-03 -8.13068788e-05 -4.23552369e-03]</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>[0.42347624 0.81629136 0.57842511]</t>
+          <t>[0.62168512 0.9563399  0.75407821]</t>
         </is>
       </c>
     </row>
@@ -4297,19 +4297,19 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>-0.0006701009324285067</v>
+        <v>-0.0006701009324285046</v>
       </c>
       <c r="F116" t="n">
-        <v>0.6284305822030531</v>
+        <v>0.9550137120628548</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>[-0.00797208  0.00860138 -0.00081038]</t>
+          <t>[-0.00645981  0.00545364 -0.00083283]</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>[0.49190782 0.697514   0.56804461]</t>
+          <t>[0.7781635  1.06250063 0.94282159]</t>
         </is>
       </c>
     </row>
@@ -4331,19 +4331,19 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.0001522669873563302</v>
+        <v>0.0001522669873563592</v>
       </c>
       <c r="F117" t="n">
-        <v>0.6784673701245175</v>
+        <v>1.026211871038885</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>[-0.00588183  0.00614769 -0.0004695 ]</t>
+          <t>[-0.00496755  0.00486635 -0.00017302]</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>[0.56669034 0.77578532 0.64192816]</t>
+          <t>[0.82998163 1.11534188 1.01685928]</t>
         </is>
       </c>
     </row>
@@ -4365,19 +4365,19 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>-0.005740748162427115</v>
+        <v>-0.005740748162427109</v>
       </c>
       <c r="F118" t="n">
-        <v>0.4548902617995735</v>
+        <v>0.5246349786964961</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>[-0.0097791  -0.00162811 -0.00581793]</t>
+          <t>[-0.01130267 -0.00184858 -0.00605781]</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>[0.26266568 0.64900795 0.39574364]</t>
+          <t>[0.23542545 0.7983482  0.50211912]</t>
         </is>
       </c>
     </row>
@@ -4399,19 +4399,19 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>-0.003788418326179805</v>
+        <v>-0.003788418326179801</v>
       </c>
       <c r="F119" t="n">
-        <v>0.3215568924186973</v>
+        <v>0.3845394194288548</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>[-0.00926053  0.00137767 -0.00377345]</t>
+          <t>[-0.00882445  0.00120662 -0.00419126]</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>[0.21106909 0.41133404 0.23298015]</t>
+          <t>[0.19429665 0.53192906 0.32149566]</t>
         </is>
       </c>
     </row>
@@ -4433,19 +4433,19 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.003632794780287719</v>
+        <v>0.003632794780287714</v>
       </c>
       <c r="F120" t="n">
-        <v>0.4347324879716309</v>
+        <v>0.4255617820341606</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>[-0.00094101  0.0079288   0.00347546]</t>
+          <t>[-0.00050121  0.00991071  0.00417341]</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>[0.24809688 0.72395487 0.41776639]</t>
+          <t>[0.14737929 0.71305813 0.38745826]</t>
         </is>
       </c>
     </row>
@@ -4467,19 +4467,19 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.003321131721490364</v>
+        <v>0.003321131721490365</v>
       </c>
       <c r="F121" t="n">
-        <v>0.4199643113034346</v>
+        <v>0.4083019447187214</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>[-0.00019843  0.00779865  0.00331696]</t>
+          <t>[-0.00194558  0.01027224  0.00370041]</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>[0.19053948 0.71496011 0.40694751]</t>
+          <t>[0.11841173 0.63275912 0.3513142 ]</t>
         </is>
       </c>
     </row>
@@ -4501,19 +4501,19 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.0006189955076543101</v>
+        <v>0.0006189955076543158</v>
       </c>
       <c r="F122" t="n">
-        <v>0.3458705235663671</v>
+        <v>0.5091949068443777</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>[-0.00509767  0.0079123   0.00040054]</t>
+          <t>[-0.00574675  0.00697443  0.00087548]</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>[0.22404452 0.4758875  0.31230224]</t>
+          <t>[0.2778692  0.62914469 0.45443945]</t>
         </is>
       </c>
     </row>
@@ -4538,16 +4538,16 @@
         <v>-0.01112905247756365</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9169974935598241</v>
+        <v>0.9364038125170622</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>[-0.01687564 -0.00213753 -0.01087761]</t>
+          <t>[-0.0200939  -0.00532005 -0.01241438]</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>[0.50199142 1.25898023 0.88772676]</t>
+          <t>[0.71863579 1.29302185 0.97626398]</t>
         </is>
       </c>
     </row>
@@ -4569,19 +4569,19 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.003856159059729484</v>
+        <v>0.003856159059729479</v>
       </c>
       <c r="F124" t="n">
-        <v>0.7340226534687473</v>
+        <v>0.7535851927310382</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>[-0.00124221  0.00935755  0.00446144]</t>
+          <t>[-0.00186134  0.0094395   0.00393152]</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>[0.30245133 1.05944018 0.72531063]</t>
+          <t>[0.54413955 1.10418589 0.7789085 ]</t>
         </is>
       </c>
     </row>
@@ -4603,19 +4603,19 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-0.01566186679470075</v>
+        <v>-0.01566186679470076</v>
       </c>
       <c r="F125" t="n">
-        <v>1.270983275597839</v>
+        <v>1.252981011014802</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>[-0.02345371 -0.00831536 -0.01590305]</t>
+          <t>[-0.02347793 -0.00765968 -0.01550374]</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>[0.91316018 1.80652553 1.3199258 ]</t>
+          <t>[1.02841274 1.51641982 1.29524632]</t>
         </is>
       </c>
     </row>
@@ -4637,19 +4637,19 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>-0.003924475900517459</v>
+        <v>-0.00392447590051746</v>
       </c>
       <c r="F126" t="n">
-        <v>0.3947251688365855</v>
+        <v>0.4818914463927107</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>[-0.00875914 -0.00033076 -0.00486056]</t>
+          <t>[-0.00996601  0.00192557 -0.00394415]</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>[0.18175862 0.68719286 0.37782483]</t>
+          <t>[0.2619655  0.78457843 0.43427713]</t>
         </is>
       </c>
     </row>
@@ -4671,19 +4671,19 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>-0.00231336021148359</v>
+        <v>-0.002313360211483592</v>
       </c>
       <c r="F127" t="n">
-        <v>0.2749817682417569</v>
+        <v>0.3525050368086612</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>[-0.00709735  0.00178401 -0.00258076]</t>
+          <t>[-0.0077648   0.00160996 -0.00272137]</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>[0.14238672 0.48456645 0.23847532]</t>
+          <t>[0.16689319 0.5490089  0.28633795]</t>
         </is>
       </c>
     </row>
@@ -4705,19 +4705,19 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>-0.005746858409961959</v>
+        <v>-0.005746858409961964</v>
       </c>
       <c r="F128" t="n">
-        <v>0.4596977813209884</v>
+        <v>0.5374635957132868</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>[-0.01037438 -0.00091422 -0.00577557]</t>
+          <t>[-0.01080093 -0.00089565 -0.00586705]</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>[0.26765785 0.6726112  0.40688737]</t>
+          <t>[0.27121836 0.75138277 0.48747314]</t>
         </is>
       </c>
     </row>
@@ -4739,19 +4739,19 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>-0.01067108354865481</v>
+        <v>-0.01067108354865482</v>
       </c>
       <c r="F129" t="n">
-        <v>0.723203807803665</v>
+        <v>0.7022970206575467</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>[-0.01509195 -0.00611656 -0.01084354]</t>
+          <t>[-0.01575972 -0.00531345 -0.01104947]</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>[0.40844844 0.91671285 0.65876815]</t>
+          <t>[0.36222821 0.95304807 0.68357527]</t>
         </is>
       </c>
     </row>
@@ -4773,19 +4773,19 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>-0.009510685896889927</v>
+        <v>-0.009510685896889923</v>
       </c>
       <c r="F130" t="n">
-        <v>0.6423731084839741</v>
+        <v>0.6008408939441889</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>[-0.01559034 -0.00348945 -0.00877414]</t>
+          <t>[-0.01628706 -0.00438783 -0.01003992]</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>[0.32808219 0.9399259  0.59049131]</t>
+          <t>[0.31401545 0.92360866 0.57429482]</t>
         </is>
       </c>
     </row>
@@ -4807,19 +4807,19 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>-0.01549935453605846</v>
+        <v>-0.01549935453605847</v>
       </c>
       <c r="F131" t="n">
-        <v>1.457461695747043</v>
+        <v>1.229297556306572</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>[-0.0228243  -0.00729086 -0.01515139]</t>
+          <t>[-0.02339135 -0.00703726 -0.01491685]</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>[1.13275772 1.95938908 1.51467006]</t>
+          <t>[0.89653602 1.62633961 1.26187104]</t>
         </is>
       </c>
     </row>
@@ -4841,19 +4841,19 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>-0.008405060823219743</v>
+        <v>-0.00840506082321974</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9756711260481955</v>
+        <v>0.852304941465349</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>[-0.01565577 -0.00062004 -0.00816526]</t>
+          <t>[-0.01577412  0.00056619 -0.0080441 ]</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>[0.5303178  1.4567491  0.98736704]</t>
+          <t>[0.5082296  1.16141519 0.84742638]</t>
         </is>
       </c>
     </row>
@@ -4875,19 +4875,19 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>-0.01113254061856514</v>
+        <v>-0.01113254061856515</v>
       </c>
       <c r="F133" t="n">
-        <v>0.8878921324959678</v>
+        <v>0.7210011891221205</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>[-0.01859895 -0.00196756 -0.0113671 ]</t>
+          <t>[-0.0174484  -0.00171725 -0.01018161]</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>[0.43648337 1.37101509 0.9265134 ]</t>
+          <t>[0.36672206 1.02849774 0.71121108]</t>
         </is>
       </c>
     </row>
@@ -4909,19 +4909,19 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>-0.01608388725014871</v>
+        <v>-0.01608388725014872</v>
       </c>
       <c r="F134" t="n">
-        <v>1.213184025441479</v>
+        <v>0.980807417619999</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>[-0.02431205 -0.00823253 -0.01615092]</t>
+          <t>[-0.02264391 -0.00802096 -0.01563045]</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>[0.81834239 1.91450309 1.31899589]</t>
+          <t>[0.66108538 1.31589186 1.01825857]</t>
         </is>
       </c>
     </row>
@@ -4943,19 +4943,19 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>-0.00894917223333069</v>
+        <v>-0.008949172233330683</v>
       </c>
       <c r="F135" t="n">
-        <v>1.097503584076364</v>
+        <v>0.9676490057180345</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>[-0.01569761 -0.00101963 -0.00751394]</t>
+          <t>[-0.01950684 -0.00072905 -0.01080326]</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>[0.74248603 1.46521052 1.11209382]</t>
+          <t>[0.72808527 1.24054712 0.96476876]</t>
         </is>
       </c>
     </row>
@@ -4977,19 +4977,19 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.005950086526151668</v>
+        <v>0.00595008652615168</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9578553243907139</v>
+        <v>0.959016231642429</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>[-0.0009208   0.01080749  0.0054794 ]</t>
+          <t>[-0.00063781  0.01132214  0.0055189 ]</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>[0.66474501 1.36035221 0.97577233]</t>
+          <t>[0.70297333 1.22172434 0.9545175 ]</t>
         </is>
       </c>
     </row>
@@ -5011,19 +5011,19 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.006050631610253205</v>
+        <v>0.006050631610253199</v>
       </c>
       <c r="F137" t="n">
-        <v>0.8599090933272366</v>
+        <v>0.8214175837593011</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>[-0.00110069  0.01254638  0.00628414]</t>
+          <t>[-0.00115161  0.01530052  0.00577613]</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>[0.45207193 1.32318781 0.87807997]</t>
+          <t>[0.57168612 1.11470587 0.81260046]</t>
         </is>
       </c>
     </row>
@@ -5045,19 +5045,19 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>-0.002548931620661509</v>
+        <v>-0.002548931620661514</v>
       </c>
       <c r="F138" t="n">
-        <v>0.5264237320882256</v>
+        <v>0.6934825857502565</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>[-0.00846427  0.00504872 -0.00244535]</t>
+          <t>[-0.00896612  0.00434725 -0.00197803]</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>[0.32894037 0.77167921 0.48806113]</t>
+          <t>[0.53771018 0.91105918 0.68860245]</t>
         </is>
       </c>
     </row>
@@ -5079,19 +5079,19 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>-0.003573625521935699</v>
+        <v>-0.0035736255219357</v>
       </c>
       <c r="F139" t="n">
-        <v>0.5082015883681056</v>
+        <v>0.5423000580640011</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>[-0.00940011  0.00171208 -0.00313332]</t>
+          <t>[-0.010989    0.00183331 -0.00441627]</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>[0.24224315 0.87982415 0.50782188]</t>
+          <t>[0.34535384 0.77262712 0.54057957]</t>
         </is>
       </c>
     </row>
@@ -5113,19 +5113,19 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.01508151509966698</v>
+        <v>0.01508151509966697</v>
       </c>
       <c r="F140" t="n">
-        <v>1.481569016666617</v>
+        <v>1.365450073130618</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>[0.0084063  0.02059427 0.01427865]</t>
+          <t>[0.00883055 0.02146979 0.01525681]</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>[1.14006425 1.84234375 1.49960127]</t>
+          <t>[1.22046455 1.56789195 1.43892367]</t>
         </is>
       </c>
     </row>
@@ -5147,19 +5147,19 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.01165364524502184</v>
+        <v>0.01165364524502182</v>
       </c>
       <c r="F141" t="n">
-        <v>1.365300639764119</v>
+        <v>1.383529817510393</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>[0.00570489 0.01803055 0.01179458]</t>
+          <t>[0.00634899 0.0194448  0.01171267]</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>[1.12824174 1.68756243 1.38652006]</t>
+          <t>[1.20024134 1.55142932 1.3923408 ]</t>
         </is>
       </c>
     </row>
@@ -5181,19 +5181,19 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.028611984897155</v>
+        <v>0.02861198489715503</v>
       </c>
       <c r="F142" t="n">
-        <v>2.496893384611199</v>
+        <v>2.178585918887342</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>[0.02287303 0.03353872 0.02835219]</t>
+          <t>[0.02363721 0.03386661 0.02823171]</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>[2.29180557 2.77674769 2.61250153]</t>
+          <t>[2.01736972 2.38659662 2.25000103]</t>
         </is>
       </c>
     </row>
@@ -5215,19 +5215,19 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.02844292355379409</v>
+        <v>0.02844292355379405</v>
       </c>
       <c r="F143" t="n">
-        <v>2.483352298924125</v>
+        <v>2.167768357148712</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>[0.02276915 0.03284196 0.02803074]</t>
+          <t>[0.02248955 0.03291391 0.02763864]</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>[2.2715193  2.80325564 2.58926568]</t>
+          <t>[2.01157383 2.35423692 2.27139816]</t>
         </is>
       </c>
     </row>
@@ -5249,19 +5249,19 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>-0.000374869877313604</v>
+        <v>-0.0003748698773136281</v>
       </c>
       <c r="F144" t="n">
-        <v>1.046547549261146</v>
+        <v>1.386215897480384</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>[-0.00558018  0.0057006  -0.00064139]</t>
+          <t>[-0.00580857  0.00499657 -0.00027441]</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>[0.90163604 1.19506516 1.05931642]</t>
+          <t>[1.31529545 1.43967597 1.40569444]</t>
         </is>
       </c>
     </row>
@@ -5283,19 +5283,19 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>-0.0002639781851960649</v>
+        <v>-0.0002639781851960702</v>
       </c>
       <c r="F145" t="n">
-        <v>1.046169726535431</v>
+        <v>1.384475045383033</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>[-0.0060494   0.00615675 -0.00064376]</t>
+          <t>[-6.78314718e-03  4.91577363e-03 -8.38809836e-05]</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>[0.89080166 1.18893324 1.04905115]</t>
+          <t>[1.31083232 1.43898921 1.40506513]</t>
         </is>
       </c>
     </row>
@@ -5317,19 +5317,19 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>-0.000766331649404893</v>
+        <v>-0.0007663316494048773</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9644804875323908</v>
+        <v>1.293732587616432</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>[-0.0066859   0.00476396 -0.00109311]</t>
+          <t>[-0.00550018  0.00510973 -0.00065671]</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>[0.81865124 1.11335717 0.99123568]</t>
+          <t>[1.2106376  1.37460779 1.32788163]</t>
         </is>
       </c>
     </row>
@@ -5351,19 +5351,19 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>-0.009927599767370463</v>
+        <v>-0.009927599767370468</v>
       </c>
       <c r="F147" t="n">
-        <v>1.180527906438413</v>
+        <v>1.033809976464176</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>[-0.01891083 -0.00048283 -0.00973845]</t>
+          <t>[-0.01737809 -0.00289775 -0.00897552]</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>[0.78834045 1.60933702 1.23929689]</t>
+          <t>[0.81026257 1.35727424 1.0353776 ]</t>
         </is>
       </c>
     </row>
@@ -5385,19 +5385,19 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.01625664830176094</v>
+        <v>0.01625664830176092</v>
       </c>
       <c r="F148" t="n">
-        <v>1.638066809583928</v>
+        <v>1.634009607901136</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>[0.00799267 0.02022215 0.01580292]</t>
+          <t>[0.01019282 0.02076528 0.01583456]</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>[1.41620954 1.90052158 1.70281506]</t>
+          <t>[1.51429087 1.74811118 1.68321548]</t>
         </is>
       </c>
     </row>
@@ -5419,19 +5419,19 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.01663104242478133</v>
+        <v>0.01663104242478136</v>
       </c>
       <c r="F149" t="n">
-        <v>1.648840258477262</v>
+        <v>1.638254775619256</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>[0.00890793 0.02098307 0.01624909]</t>
+          <t>[0.01069029 0.02134143 0.01630814]</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>[1.41013971 1.90915867 1.70170859]</t>
+          <t>[1.51480971 1.78311246 1.69244137]</t>
         </is>
       </c>
     </row>
@@ -5453,19 +5453,19 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>-0.0004033973919237671</v>
+        <v>-0.0004033973919237648</v>
       </c>
       <c r="F150" t="n">
-        <v>0.8338074545013409</v>
+        <v>1.20747068252551</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>[-0.00575745  0.00331942 -0.00042477]</t>
+          <t>[-0.00513017  0.00336573 -0.00061325]</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>[0.70825537 1.00053929 0.8417669 ]</t>
+          <t>[1.1091146  1.31295725 1.22927874]</t>
         </is>
       </c>
     </row>
@@ -5487,19 +5487,19 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>-0.0004948778638060643</v>
+        <v>-0.0004948778638060687</v>
       </c>
       <c r="F151" t="n">
-        <v>0.8315648243232332</v>
+        <v>1.207150567523856</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>[-0.00598252  0.00333975 -0.00060324]</t>
+          <t>[-0.00517245  0.00303791 -0.00072355]</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>[0.70533167 1.00024434 0.85073181]</t>
+          <t>[1.09663352 1.31257149 1.22392424]</t>
         </is>
       </c>
     </row>
@@ -5524,16 +5524,16 @@
         <v>0.01695326206009314</v>
       </c>
       <c r="F152" t="n">
-        <v>1.578340142710084</v>
+        <v>1.486769280880567</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>[0.01133877 0.02342215 0.01707362]</t>
+          <t>[0.01130043 0.02396228 0.01712953]</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>[1.32508804 1.96009413 1.67919044]</t>
+          <t>[1.2989238  1.71207612 1.52414753]</t>
         </is>
       </c>
     </row>
@@ -5558,16 +5558,16 @@
         <v>0.02326971237916655</v>
       </c>
       <c r="F153" t="n">
-        <v>2.006461936664252</v>
+        <v>1.760141970273027</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>[0.01732782 0.03147902 0.02370103]</t>
+          <t>[0.01654284 0.02977065 0.02291543]</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>[1.66618909 2.42637686 2.06942146]</t>
+          <t>[1.61566502 2.12921224 1.8270829 ]</t>
         </is>
       </c>
     </row>
@@ -5589,19 +5589,19 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.01491889592875287</v>
+        <v>0.01491889592875292</v>
       </c>
       <c r="F154" t="n">
-        <v>1.56061020877856</v>
+        <v>1.54428626161906</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>[0.00889765 0.02052528 0.01487641]</t>
+          <t>[0.00927527 0.02093895 0.01474202]</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>[1.22947777 1.83291721 1.57486373]</t>
+          <t>[1.39561075 1.72076331 1.56525296]</t>
         </is>
       </c>
     </row>
@@ -5623,19 +5623,19 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.004724197855238987</v>
+        <v>0.004724197855238975</v>
       </c>
       <c r="F155" t="n">
-        <v>1.02880797320467</v>
+        <v>1.208463987049475</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>[-0.00087977  0.01089582  0.00460327]</t>
+          <t>[0.00017982 0.01032656 0.00529116]</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>[0.82316276 1.24585033 1.04828557]</t>
+          <t>[1.06816578 1.35549283 1.22650986]</t>
         </is>
       </c>
     </row>
@@ -5657,19 +5657,19 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.007736742690573564</v>
+        <v>0.007736742690573601</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9594714340795057</v>
+        <v>1.073815467409429</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>[0.00111407 0.01597706 0.00823073]</t>
+          <t>[0.00165574 0.01502011 0.00714797]</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>[0.7266692  1.37536651 0.98960094]</t>
+          <t>[0.94310161 1.24108368 1.05184048]</t>
         </is>
       </c>
     </row>
@@ -5691,19 +5691,19 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.001117131066467245</v>
+        <v>0.001117131066467237</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9171535626142044</v>
+        <v>1.128926714568768</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>[-0.00352032  0.00678964  0.00181498]</t>
+          <t>[-0.004739    0.00613043  0.0012027 ]</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>[0.71416597 1.17692974 0.93649128]</t>
+          <t>[0.98395885 1.30469428 1.14507708]</t>
         </is>
       </c>
     </row>
@@ -5725,19 +5725,19 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-0.002488192901834141</v>
+        <v>-0.002488192901834126</v>
       </c>
       <c r="F158" t="n">
-        <v>0.7314832988050434</v>
+        <v>1.094947235369385</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>[-0.00757583  0.00408306 -0.00253689]</t>
+          <t>[-0.00899882  0.00332819 -0.00238491]</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>[0.61645669 0.9011117  0.73003461]</t>
+          <t>[0.99742588 1.26221515 1.10612912]</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5762,16 @@
         <v>0.01432514460255222</v>
       </c>
       <c r="F159" t="n">
-        <v>1.10109797938326</v>
+        <v>1.022186813706445</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>[0.00642347 0.02092001 0.01347446]</t>
+          <t>[0.00908794 0.02227977 0.01476427]</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>[0.78939374 1.52908038 1.14679072]</t>
+          <t>[0.81429441 1.34887546 1.05893647]</t>
         </is>
       </c>
     </row>
@@ -5793,19 +5793,19 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>-0.005515321553975989</v>
+        <v>-0.005515321553975999</v>
       </c>
       <c r="F160" t="n">
-        <v>0.7786701845526502</v>
+        <v>1.107642597565518</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>[-0.01088757 -0.00051363 -0.00539084]</t>
+          <t>[-0.01028965 -0.00058461 -0.00516433]</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>[0.62992876 0.97281646 0.77493216]</t>
+          <t>[0.96270832 1.2744332  1.12131366]</t>
         </is>
       </c>
     </row>
@@ -5827,19 +5827,19 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.003244025565929377</v>
+        <v>0.003244025565929378</v>
       </c>
       <c r="F161" t="n">
-        <v>0.8794706455366774</v>
+        <v>0.9996934799031268</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>[-0.00167835  0.00758893  0.00250486]</t>
+          <t>[-0.00191338  0.00711475  0.00322095]</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>[0.59738093 1.1862826  0.9154287 ]</t>
+          <t>[0.77808159 1.1961196  0.98876096]</t>
         </is>
       </c>
     </row>
@@ -5861,19 +5861,19 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.001658667167664806</v>
+        <v>0.001658667167664805</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9528829524868526</v>
+        <v>1.149414452456736</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>[-0.00498476  0.00681514  0.00146632]</t>
+          <t>[-0.00416343  0.00700667  0.00164042]</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>[0.73421732 1.18299502 0.96470769]</t>
+          <t>[0.99007022 1.30375174 1.15770215]</t>
         </is>
       </c>
     </row>
@@ -5895,19 +5895,19 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>-0.001348412583817126</v>
+        <v>-0.001348412583817114</v>
       </c>
       <c r="F163" t="n">
-        <v>0.7680656392256217</v>
+        <v>1.055199685311766</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>[-0.00760249  0.00396355 -0.00118924]</t>
+          <t>[-0.01016363  0.00430231 -0.00191122]</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>[0.62288139 0.97995209 0.78639727]</t>
+          <t>[0.87877398 1.24829127 1.06070047]</t>
         </is>
       </c>
     </row>
@@ -5929,19 +5929,19 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-0.007837309096313012</v>
+        <v>-0.007837309096312995</v>
       </c>
       <c r="F164" t="n">
-        <v>0.8970810718428642</v>
+        <v>1.215278671439289</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>[-0.01252537 -0.00460695 -0.00780248]</t>
+          <t>[-0.01301802 -0.00322594 -0.00778713]</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>[0.75061948 1.06998269 0.92390221]</t>
+          <t>[1.05061059 1.35332179 1.22852526]</t>
         </is>
       </c>
     </row>
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>-0.007637981984040858</v>
+        <v>-0.007637981984040825</v>
       </c>
       <c r="F165" t="n">
-        <v>0.963739722748181</v>
+        <v>1.345820023123451</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>[-0.01192636 -0.00422721 -0.00749245]</t>
+          <t>[-0.0115285  -0.00365691 -0.00756626]</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>[0.80610044 1.12582727 0.97789768]</t>
+          <t>[1.21767668 1.46611249 1.37815858]</t>
         </is>
       </c>
     </row>
@@ -5997,19 +5997,19 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>-0.00706041293799909</v>
+        <v>-0.007060412937999073</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9462576027883384</v>
+        <v>1.335688482550827</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>[-0.01086356 -0.00317378 -0.00675235]</t>
+          <t>[-0.01054025 -0.00230725 -0.00625044]</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>[0.79452046 1.08121043 0.95172029]</t>
+          <t>[1.20012542 1.4579769  1.35597972]</t>
         </is>
       </c>
     </row>
@@ -6031,19 +6031,19 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>-0.01133941734340896</v>
+        <v>-0.01133941734340895</v>
       </c>
       <c r="F167" t="n">
-        <v>0.8308535798035901</v>
+        <v>0.8705328846340962</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>[-0.01889638 -0.00778571 -0.01162687]</t>
+          <t>[-0.01700847 -0.0028112  -0.01086319]</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>[0.62217799 1.28898824 0.86184592]</t>
+          <t>[0.64194822 1.12064307 0.87458577]</t>
         </is>
       </c>
     </row>
@@ -6065,19 +6065,19 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>-0.002574598890997285</v>
+        <v>-0.002574598890997266</v>
       </c>
       <c r="F168" t="n">
-        <v>0.8298550739610491</v>
+        <v>1.114331990563566</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>[-0.00929473  0.00351981 -0.00187636]</t>
+          <t>[-0.00927779  0.00513039 -0.00261628]</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>[0.65380206 0.980672   0.8252232 ]</t>
+          <t>[0.99370787 1.33942173 1.13066372]</t>
         </is>
       </c>
     </row>
@@ -6099,19 +6099,19 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>-0.01586402968117241</v>
+        <v>-0.01586402968117243</v>
       </c>
       <c r="F169" t="n">
-        <v>1.246844263947289</v>
+        <v>1.257066004704932</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>[-0.02561114 -0.00562325 -0.0156607 ]</t>
+          <t>[-0.02419759 -0.00959768 -0.01578715]</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>[0.74222847 1.82209922 1.2883779 ]</t>
+          <t>[1.01193818 1.63291091 1.30270309]</t>
         </is>
       </c>
     </row>
@@ -6133,19 +6133,19 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-0.005349925105316476</v>
+        <v>-0.005349925105316497</v>
       </c>
       <c r="F170" t="n">
-        <v>0.8053573773791554</v>
+        <v>1.151309871383431</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>[-0.01105043  0.00067535 -0.00570504]</t>
+          <t>[-0.01126657  0.00012083 -0.00553659]</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>[0.6633037  1.00225221 0.8321495 ]</t>
+          <t>[1.04170506 1.33536256 1.17137345]</t>
         </is>
       </c>
     </row>
@@ -6170,16 +6170,16 @@
         <v>0.01262557844394756</v>
       </c>
       <c r="F171" t="n">
-        <v>1.024761304753565</v>
+        <v>0.9104453443814505</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>[0.00560631 0.02038598 0.01349212]</t>
+          <t>[0.00447225 0.02195234 0.01331963]</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>[0.64524468 1.47674279 1.04032584]</t>
+          <t>[0.6825121  1.29066153 0.95376305]</t>
         </is>
       </c>
     </row>
@@ -6201,19 +6201,19 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0.005590216689092651</v>
+        <v>0.005590216689092637</v>
       </c>
       <c r="F172" t="n">
-        <v>1.02674651285583</v>
+        <v>1.121072439977083</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>[-0.00200158  0.00996415  0.00443106]</t>
+          <t>[-0.00297031  0.0106326   0.00523186]</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>[0.78134765 1.25566706 1.04241712]</t>
+          <t>[0.82784056 1.31520853 1.12660778]</t>
         </is>
       </c>
     </row>
@@ -6238,16 +6238,16 @@
         <v>-0.006447230262286335</v>
       </c>
       <c r="F173" t="n">
-        <v>0.7154816866112049</v>
+        <v>0.9424969484542798</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>[-0.00997413 -0.0033089  -0.00649321]</t>
+          <t>[-0.01031913 -0.00081848 -0.00633936]</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>[0.57914064 0.89372152 0.75175262]</t>
+          <t>[0.80213875 1.13333078 0.96366074]</t>
         </is>
       </c>
     </row>
@@ -6269,19 +6269,19 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>-0.007402424155855195</v>
+        <v>-0.007402424155855188</v>
       </c>
       <c r="F174" t="n">
-        <v>0.7733960187271003</v>
+        <v>1.030269220802205</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>[-0.01328751  0.00071743 -0.00670808]</t>
+          <t>[-0.01321638 -0.00111264 -0.00764074]</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>[0.57085109 1.01175368 0.73726538]</t>
+          <t>[0.90413485 1.19822888 1.06901786]</t>
         </is>
       </c>
     </row>
@@ -6303,19 +6303,19 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>-0.002086853622509022</v>
+        <v>-0.002086853622509024</v>
       </c>
       <c r="F175" t="n">
-        <v>0.7519620314755642</v>
+        <v>1.132229092528736</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>[-0.0072345   0.00241961 -0.00192562]</t>
+          <t>[-0.00539436  0.00347664 -0.00185829]</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>[0.63134639 0.90795347 0.75662825]</t>
+          <t>[0.98890429 1.22347536 1.14446717]</t>
         </is>
       </c>
     </row>
@@ -6337,19 +6337,19 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>0.0009048907227292868</v>
+        <v>0.0009048907227292769</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9175158908926191</v>
+        <v>1.22363828739477</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>[-0.00344892  0.00774663  0.00086284]</t>
+          <t>[-0.00529246  0.0059418   0.00129705]</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>[0.73988775 1.12964218 0.92884444]</t>
+          <t>[1.07034419 1.32438714 1.2258644 ]</t>
         </is>
       </c>
     </row>
@@ -6371,19 +6371,19 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>-0.004830049604293432</v>
+        <v>-0.004830049604293427</v>
       </c>
       <c r="F177" t="n">
-        <v>0.8456816574410249</v>
+        <v>1.234397591391056</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>[-0.00947866 -0.00133513 -0.00498609]</t>
+          <t>[-0.00843861 -0.00041073 -0.004813  ]</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>[0.71439947 0.98614509 0.85281409]</t>
+          <t>[1.08673268 1.33474901 1.25172011]</t>
         </is>
       </c>
     </row>
@@ -6405,19 +6405,19 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>-0.003319003607627161</v>
+        <v>-0.003319003607627158</v>
       </c>
       <c r="F178" t="n">
-        <v>0.8677862124459025</v>
+        <v>1.275597196270712</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>[-0.00826499  0.00094584 -0.00342379]</t>
+          <t>[-0.0069762   0.00188814 -0.00290946]</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>[0.73529456 1.00528043 0.87725703]</t>
+          <t>[1.15535221 1.35558931 1.28744012]</t>
         </is>
       </c>
     </row>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>0.002202973045783632</v>
+        <v>0.002202973045783638</v>
       </c>
       <c r="F179" t="n">
-        <v>1.036926998939525</v>
+        <v>1.311300019385095</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>[-0.00326996  0.00810922  0.00199885]</t>
+          <t>[-0.00338527  0.00890907  0.00237871]</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>[0.87138032 1.28815081 1.05556234]</t>
+          <t>[1.21536566 1.4548535  1.34318616]</t>
         </is>
       </c>
     </row>
@@ -6473,19 +6473,19 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>-0.00347795271504251</v>
+        <v>-0.003477952715042503</v>
       </c>
       <c r="F180" t="n">
-        <v>0.6394852256194526</v>
+        <v>0.8817005496653594</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>[-0.0103287   0.00219307 -0.00364907]</t>
+          <t>[-0.00921692  0.00172977 -0.00350889]</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>[0.48178083 0.85738535 0.63482073]</t>
+          <t>[0.75609705 1.08875972 0.89058539]</t>
         </is>
       </c>
     </row>
@@ -6507,19 +6507,19 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>-0.001564155843701792</v>
+        <v>-0.001564155843701778</v>
       </c>
       <c r="F181" t="n">
-        <v>0.6301508238716138</v>
+        <v>0.8994737589003711</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>[-0.00729207  0.00332789 -0.00182965]</t>
+          <t>[-0.00896486  0.00271209 -0.00195213]</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>[0.48789855 0.81185728 0.62907179]</t>
+          <t>[0.7581531  1.05669187 0.90262816]</t>
         </is>
       </c>
     </row>
@@ -6541,19 +6541,19 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-0.002614988362499136</v>
+        <v>-0.002614988362499129</v>
       </c>
       <c r="F182" t="n">
-        <v>0.6563178223096042</v>
+        <v>0.9351384268344218</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>[-0.00772539  0.00156974 -0.0026019 ]</t>
+          <t>[-0.00724898  0.00362545 -0.00238825]</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>[0.53065538 0.79907637 0.64154971]</t>
+          <t>[0.83695753 1.08878758 0.97243726]</t>
         </is>
       </c>
     </row>
@@ -6575,19 +6575,19 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>-0.005245493254757611</v>
+        <v>-0.005245493254757608</v>
       </c>
       <c r="F183" t="n">
-        <v>0.7757011158644845</v>
+        <v>1.11325624366302</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>[-0.01245517 -0.00070387 -0.00551713]</t>
+          <t>[-0.0099591  -0.00074075 -0.00565307]</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>[0.62414801 1.00874578 0.78398628]</t>
+          <t>[1.00844495 1.25721001 1.15256791]</t>
         </is>
       </c>
     </row>
@@ -6609,19 +6609,19 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>0.003528219150929455</v>
+        <v>0.003528219150929462</v>
       </c>
       <c r="F184" t="n">
-        <v>0.7844239865778466</v>
+        <v>1.079770937168756</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>[-0.00126759  0.00819389  0.00261234]</t>
+          <t>[-0.00155415  0.00782292  0.00233465]</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>[0.61898359 1.01080107 0.78826436]</t>
+          <t>[0.95634736 1.21096659 1.08518516]</t>
         </is>
       </c>
     </row>
@@ -6643,19 +6643,19 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-0.00628534600638656</v>
+        <v>-0.006285346006386561</v>
       </c>
       <c r="F185" t="n">
-        <v>0.8011895051136118</v>
+        <v>1.119711058635309</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>[-0.01172461 -0.00145049 -0.00662029]</t>
+          <t>[-0.01279901 -0.00167282 -0.0065454 ]</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>[0.58371416 1.01691049 0.80369119]</t>
+          <t>[1.0038483  1.30114987 1.13770082]</t>
         </is>
       </c>
     </row>
@@ -6677,19 +6677,19 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>-0.007707722525350292</v>
+        <v>-0.007707722525350281</v>
       </c>
       <c r="F186" t="n">
-        <v>0.8405358808905522</v>
+        <v>1.119040750380252</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>[-0.01360028 -0.00115106 -0.00831838]</t>
+          <t>[-0.01463264 -0.00137304 -0.00847084]</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>[0.65976561 1.09670149 0.86599484]</t>
+          <t>[0.95523865 1.36169923 1.14396261]</t>
         </is>
       </c>
     </row>
@@ -6711,19 +6711,19 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>-0.001540929285172148</v>
+        <v>-0.001540929285172159</v>
       </c>
       <c r="F187" t="n">
-        <v>0.5701112589371398</v>
+        <v>0.8388537943551131</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>[-0.0085511   0.00385106 -0.00179018]</t>
+          <t>[-0.00781467  0.0076541  -0.00069214]</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>[0.45041889 0.84040141 0.56898452]</t>
+          <t>[0.7163519  0.98638102 0.82560826]</t>
         </is>
       </c>
     </row>
@@ -6745,19 +6745,19 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-0.0009883730752855784</v>
+        <v>-0.0009883730752855793</v>
       </c>
       <c r="F188" t="n">
-        <v>0.8760220532323125</v>
+        <v>1.185517537308984</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>[-0.00557346  0.00664428 -0.000293  ]</t>
+          <t>[-0.00659698  0.00399069 -0.00156008]</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>[0.69689667 1.06963621 0.87403316]</t>
+          <t>[1.08442148 1.32534527 1.20958101]</t>
         </is>
       </c>
     </row>
@@ -6779,19 +6779,19 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>-0.00925812178119712</v>
+        <v>-0.009258121781197139</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9105609194430587</v>
+        <v>1.187526879668125</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>[-0.01622102 -0.00352453 -0.00982554]</t>
+          <t>[-0.01565339 -0.00244871 -0.00927266]</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>[0.72478433 1.23654174 0.93421501]</t>
+          <t>[0.98714676 1.44105128 1.20267472]</t>
         </is>
       </c>
     </row>
@@ -6813,19 +6813,19 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>-0.008505157653724064</v>
+        <v>-0.00850515765372406</v>
       </c>
       <c r="F190" t="n">
-        <v>0.8350506048858748</v>
+        <v>1.085045328984184</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>[-0.0160621  -0.00211512 -0.00863946]</t>
+          <t>[-0.01733763 -0.00159186 -0.00955916]</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>[0.63025653 1.13698475 0.8417567 ]</t>
+          <t>[0.96204667 1.33332089 1.17146596]</t>
         </is>
       </c>
     </row>
